--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/161.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/161.xlsx
@@ -479,13 +479,13 @@
         <v>-13.86394014182071</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28903722366002</v>
+        <v>-11.30533714069797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6330624977697302</v>
+        <v>0.7498458391179268</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.200553433235204</v>
+        <v>-5.171449244018048</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.02836255484476</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47845666117411</v>
+        <v>-11.48182138300444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7091942387943673</v>
+        <v>0.8363728685988944</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.085445906650749</v>
+        <v>-5.058816162670678</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.09843660384411</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02325356702402</v>
+        <v>-12.01974482986244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7208856652320287</v>
+        <v>0.8396721289150093</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.780421435044214</v>
+        <v>-4.750309138508245</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.16512460721473</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71236692709827</v>
+        <v>-12.71190869649881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7337946758339706</v>
+        <v>0.8552388769938216</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.865023896007449</v>
+        <v>-4.832594261868493</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.23917260704816</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31399751958411</v>
+        <v>-13.31415462721821</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7654256794995807</v>
+        <v>0.8802058985129932</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.155970958705248</v>
+        <v>-4.10303877831615</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.33702659402323</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59059860172125</v>
+        <v>-13.57569956108737</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8816722364312666</v>
+        <v>1.006939390020902</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.168434831010572</v>
+        <v>-4.110658498570034</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.483182082785138</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.16664683445436</v>
+        <v>-14.14795102599638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9604093457214071</v>
+        <v>1.07526811855187</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.755123922600121</v>
+        <v>-3.697151205616958</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.682785818044979</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.96014512508569</v>
+        <v>-14.94667314546156</v>
       </c>
       <c r="F9" t="n">
-        <v>1.183842586018304</v>
+        <v>1.30122817329722</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.384520106059381</v>
+        <v>-3.314855962638557</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.957438899538424</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.55461422791711</v>
+        <v>-15.53671704993247</v>
       </c>
       <c r="F10" t="n">
-        <v>1.230582107163266</v>
+        <v>1.353558107755599</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.683401104279267</v>
+        <v>-2.605462625462472</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.300581700479323</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.15849669649172</v>
+        <v>-16.14520800910737</v>
       </c>
       <c r="F11" t="n">
-        <v>1.175751542862117</v>
+        <v>1.295873421434954</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.236024023874645</v>
+        <v>-2.143579273509218</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.728153909882335</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.62900787601767</v>
+        <v>-16.60999785229149</v>
       </c>
       <c r="F12" t="n">
-        <v>1.204109470817296</v>
+        <v>1.320513135383083</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.81485773375916</v>
+        <v>-1.723997152037581</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.227736904247299</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.4255173963026</v>
+        <v>-17.40398055812797</v>
       </c>
       <c r="F13" t="n">
-        <v>1.425461034962359</v>
+        <v>1.547559851264296</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.02146418155056</v>
+        <v>-0.9286397544027221</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.814112269788891</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.2390207256761</v>
+        <v>-18.21779810276966</v>
       </c>
       <c r="F14" t="n">
-        <v>1.629622405476235</v>
+        <v>1.746903254332417</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8267030844770429</v>
+        <v>-0.7475732061016506</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.474745639664113</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.0805153985252</v>
+        <v>-19.06479154281228</v>
       </c>
       <c r="F15" t="n">
-        <v>1.678980387189542</v>
+        <v>1.793276190997811</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3955080903847949</v>
+        <v>-0.3190359494862729</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.221668954930172</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.0773240599857</v>
+        <v>-20.0709873854103</v>
       </c>
       <c r="F16" t="n">
-        <v>2.003721866875716</v>
+        <v>2.120138623744344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1732215450597855</v>
+        <v>0.2545771149182713</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.041250181631114</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.78925730391308</v>
+        <v>-20.7797261074443</v>
       </c>
       <c r="F17" t="n">
-        <v>2.065020028780677</v>
+        <v>2.171853219969162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2714923701897814</v>
+        <v>0.3422431747464691</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.939236826101762</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.69926399753293</v>
+        <v>-21.69148716964494</v>
       </c>
       <c r="F18" t="n">
-        <v>2.18457893833132</v>
+        <v>2.290966991223186</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8314108858218802</v>
+        <v>0.9072415038811575</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.899593351491564</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70784263924814</v>
+        <v>-22.70868054663001</v>
       </c>
       <c r="F19" t="n">
-        <v>2.283661486237503</v>
+        <v>2.389866246889584</v>
       </c>
       <c r="G19" t="n">
-        <v>1.047826651795612</v>
+        <v>1.114361734837264</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.922804528441341</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.06390090733172</v>
+        <v>-23.05807483256715</v>
       </c>
       <c r="F20" t="n">
-        <v>2.584339313300584</v>
+        <v>2.690544073952665</v>
       </c>
       <c r="G20" t="n">
-        <v>1.653136181379975</v>
+        <v>1.731794736853065</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.990798665796505</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02066021439938</v>
+        <v>-24.0232393980592</v>
       </c>
       <c r="F21" t="n">
-        <v>2.707956836732161</v>
+        <v>2.801985755741438</v>
       </c>
       <c r="G21" t="n">
-        <v>1.758057896353568</v>
+        <v>1.824985748480471</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.09973481247112</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36045784235354</v>
+        <v>-24.35939736582336</v>
       </c>
       <c r="F22" t="n">
-        <v>2.790988221354388</v>
+        <v>2.88855206213093</v>
       </c>
       <c r="G22" t="n">
-        <v>2.028780534514779</v>
+        <v>2.099190939197582</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.230693876614471</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.89605085930571</v>
+        <v>-24.8928170605038</v>
       </c>
       <c r="F23" t="n">
-        <v>2.725971845442376</v>
+        <v>2.815418458457049</v>
       </c>
       <c r="G23" t="n">
-        <v>2.573813101815836</v>
+        <v>2.655247225491372</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.378054242775452</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.43301856805626</v>
+        <v>-25.4413452726636</v>
       </c>
       <c r="F24" t="n">
-        <v>2.608298227500942</v>
+        <v>2.693214903732378</v>
       </c>
       <c r="G24" t="n">
-        <v>2.364990871490305</v>
+        <v>2.439145674785841</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.526090095017842</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.57675896095557</v>
+        <v>-25.58028079041999</v>
       </c>
       <c r="F25" t="n">
-        <v>2.73039704380288</v>
+        <v>2.809762583629423</v>
       </c>
       <c r="G25" t="n">
-        <v>2.272009336708366</v>
+        <v>2.34045589596491</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.672776172547461</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.65554843945708</v>
+        <v>-25.66411080551557</v>
       </c>
       <c r="F26" t="n">
-        <v>2.897192982006469</v>
+        <v>2.982790457985675</v>
       </c>
       <c r="G26" t="n">
-        <v>2.273423305415273</v>
+        <v>2.341319987952464</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.808045675739213</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.41052599177418</v>
+        <v>-25.41729471234335</v>
       </c>
       <c r="F27" t="n">
-        <v>2.595598693744468</v>
+        <v>2.672843280510651</v>
       </c>
       <c r="G27" t="n">
-        <v>1.983245505231256</v>
+        <v>2.040825453129167</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.932387108940748</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.50664967923813</v>
+        <v>-25.51993836662248</v>
       </c>
       <c r="F28" t="n">
-        <v>2.862550748687263</v>
+        <v>2.942492349838842</v>
       </c>
       <c r="G28" t="n">
-        <v>1.937370076073848</v>
+        <v>2.004036082143917</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.036376160004632</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.72368078344542</v>
+        <v>-25.74944643543794</v>
       </c>
       <c r="F29" t="n">
-        <v>2.68996801262763</v>
+        <v>2.758021802798921</v>
       </c>
       <c r="G29" t="n">
-        <v>1.840172819776874</v>
+        <v>1.912468516068885</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.119086175679595</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.37462689738216</v>
+        <v>-25.3841450015481</v>
       </c>
       <c r="F30" t="n">
-        <v>2.663154976407774</v>
+        <v>2.736812272195325</v>
       </c>
       <c r="G30" t="n">
-        <v>1.974892616018235</v>
+        <v>2.063265660199886</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.173442146811474</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.60512679785971</v>
+        <v>-24.6054671977336</v>
       </c>
       <c r="F31" t="n">
-        <v>2.574886670648857</v>
+        <v>2.644825752429358</v>
       </c>
       <c r="G31" t="n">
-        <v>1.444706720139696</v>
+        <v>1.537766808738685</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.203748378648731</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.73252799681255</v>
+        <v>-24.74624873019068</v>
       </c>
       <c r="F32" t="n">
-        <v>2.555431508626052</v>
+        <v>2.626287051605474</v>
       </c>
       <c r="G32" t="n">
-        <v>1.554289294924943</v>
+        <v>1.665521499868248</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.210325387263378</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.1608264086229</v>
+        <v>-24.16923166704728</v>
       </c>
       <c r="F33" t="n">
-        <v>2.610969057280654</v>
+        <v>2.683997922531802</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7891882091573136</v>
+        <v>0.8890955721425252</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.20481821477096</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.51406664824163</v>
+        <v>-23.5155329861599</v>
       </c>
       <c r="F34" t="n">
-        <v>2.58871214244972</v>
+        <v>2.664438022086264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7213700804371725</v>
+        <v>0.8210155973655496</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.193313256809495</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.8759478077359</v>
+        <v>-22.86784367227687</v>
       </c>
       <c r="F35" t="n">
-        <v>2.464309080847639</v>
+        <v>2.540977606288787</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7762922908582134</v>
+        <v>0.8823530361790363</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.190922207138327</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.0721982439795</v>
+        <v>-22.06395009318921</v>
       </c>
       <c r="F36" t="n">
-        <v>2.318408457979444</v>
+        <v>2.38960440083275</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7951975761616659</v>
+        <v>0.9115095946075602</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.205546753598886</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.12260042656626</v>
+        <v>-21.10224189564738</v>
       </c>
       <c r="F37" t="n">
-        <v>2.359439735085413</v>
+        <v>2.42927407844318</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7346718601243662</v>
+        <v>0.8497139251946132</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.25121493978343</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.99746419600504</v>
+        <v>-20.9910489676126</v>
       </c>
       <c r="F38" t="n">
-        <v>2.18837570615542</v>
+        <v>2.260461925601964</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4383668622104219</v>
+        <v>0.5463783606546619</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.333112214526975</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.14097883640217</v>
+        <v>-20.12556919595745</v>
       </c>
       <c r="F39" t="n">
-        <v>2.429588293711381</v>
+        <v>2.503297958710299</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2742941229979108</v>
+        <v>0.3785874074351006</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.462114989232278</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.62298187446927</v>
+        <v>-19.60707472651658</v>
       </c>
       <c r="F40" t="n">
-        <v>2.267845984404698</v>
+        <v>2.346033216975485</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.04718737328067283</v>
+        <v>0.04819005292130158</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.638983066037074</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.66758416689716</v>
+        <v>-18.63368819483993</v>
       </c>
       <c r="F41" t="n">
-        <v>2.485806642113753</v>
+        <v>2.559621045535405</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1103708267948428</v>
+        <v>-0.0116155864597031</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.866670789331489</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.40192824993569</v>
+        <v>-18.39074742330886</v>
       </c>
       <c r="F42" t="n">
-        <v>2.493766762241523</v>
+        <v>2.562789382823103</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3588889193364871</v>
+        <v>-0.2640613698538651</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.137300285807847</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.48131679101404</v>
+        <v>-17.45517146223911</v>
       </c>
       <c r="F43" t="n">
-        <v>2.844954693667983</v>
+        <v>2.924136941254742</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3644138711356955</v>
+        <v>-0.2779523031689365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.443589451163033</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.03010366587679</v>
+        <v>-17.00315970662852</v>
       </c>
       <c r="F44" t="n">
-        <v>2.780697671320791</v>
+        <v>2.857470935184673</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6928081033147104</v>
+        <v>-0.6079176116889586</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.768304770845632</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.30198833563704</v>
+        <v>-16.2710381317192</v>
       </c>
       <c r="F45" t="n">
-        <v>2.727569106389067</v>
+        <v>2.799812433469711</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7369553484970107</v>
+        <v>-0.6524183490479855</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.096165518787455</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.82676392708807</v>
+        <v>-15.79421646222354</v>
       </c>
       <c r="F46" t="n">
-        <v>2.891484737967477</v>
+        <v>2.970248031863301</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8982917964156011</v>
+        <v>-0.8164779959576549</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.407874768672365</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.09303199892921</v>
+        <v>-15.04726130819454</v>
       </c>
       <c r="F47" t="n">
-        <v>2.866923577836399</v>
+        <v>2.945425025675388</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.230600627144292</v>
+        <v>-1.149336703405698</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.689541303865482</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.44260639375226</v>
+        <v>-14.39944107128309</v>
       </c>
       <c r="F48" t="n">
-        <v>2.731496797241584</v>
+        <v>2.808950860853236</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.268542120779614</v>
+        <v>-1.188613611930877</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.926879999641085</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.83461294208534</v>
+        <v>-13.78288525355769</v>
       </c>
       <c r="F49" t="n">
-        <v>3.128324496374302</v>
+        <v>3.217221232669622</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.454897959428743</v>
+        <v>-1.372979420548063</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.112282920562643</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.2383763783703</v>
+        <v>-13.18418733690839</v>
       </c>
       <c r="F50" t="n">
-        <v>3.18231715329358</v>
+        <v>3.270323612995663</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.412308698284608</v>
+        <v>-1.321696870317022</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.240863548393307</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.38321334135443</v>
+        <v>-12.33144637591825</v>
       </c>
       <c r="F51" t="n">
-        <v>3.167784697139264</v>
+        <v>3.259168970974512</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.421146002702773</v>
+        <v>-1.326108976374684</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.314466267992358</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.36290717964692</v>
+        <v>-12.33266396008253</v>
       </c>
       <c r="F52" t="n">
-        <v>3.129319511390273</v>
+        <v>3.22282473828588</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.517688643857661</v>
+        <v>-1.419810587812917</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.339003991501002</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.56135712276792</v>
+        <v>-11.51549478591336</v>
       </c>
       <c r="F53" t="n">
-        <v>3.404729193968822</v>
+        <v>3.505016233736444</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.663209589943447</v>
+        <v>-1.570411347401292</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.324649051820986</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.32375801079628</v>
+        <v>-11.28334207192387</v>
       </c>
       <c r="F54" t="n">
-        <v>3.062155997812218</v>
+        <v>3.156472947484013</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.729443550019739</v>
+        <v>-1.629798033091362</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.283483912970889</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.74372971799929</v>
+        <v>-10.70184744120861</v>
       </c>
       <c r="F55" t="n">
-        <v>2.944770410533302</v>
+        <v>3.043486373959917</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.118599159687204</v>
+        <v>-2.015065228814835</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.226637778026149</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.18948016949766</v>
+        <v>-10.13928428040248</v>
       </c>
       <c r="F56" t="n">
-        <v>3.165742297895955</v>
+        <v>3.270192689967245</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.393995749962912</v>
+        <v>-2.298317200795578</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.164836023532436</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.593178144268402</v>
+        <v>-9.554883158456352</v>
       </c>
       <c r="F57" t="n">
-        <v>3.188025397332572</v>
+        <v>3.300409724925949</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.881068692583647</v>
+        <v>-2.796911369917032</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.104026048266489</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.460801870235709</v>
+        <v>-9.428791189787688</v>
       </c>
       <c r="F58" t="n">
-        <v>3.148879411835812</v>
+        <v>3.266160260691993</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.701494666806532</v>
+        <v>-2.602071719026465</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.049891897769264</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.861986122860841</v>
+        <v>-8.826754735913758</v>
       </c>
       <c r="F59" t="n">
-        <v>3.25361783456962</v>
+        <v>3.372783975035011</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.071378406690978</v>
+        <v>-2.981656855316629</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.002555634303043</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.747925980503725</v>
+        <v>-8.71793151469333</v>
       </c>
       <c r="F60" t="n">
-        <v>3.051001355791068</v>
+        <v>3.166318359220991</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.783989267012248</v>
+        <v>-2.681136135887648</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.963958615478765</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.310944188555434</v>
+        <v>-8.287299489623276</v>
       </c>
       <c r="F61" t="n">
-        <v>3.114944162870057</v>
+        <v>3.232853442262642</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.245885711268344</v>
+        <v>-3.145454656169464</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.92958235392142</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.938206326651492</v>
+        <v>-7.917703780401349</v>
       </c>
       <c r="F62" t="n">
-        <v>2.924634448762728</v>
+        <v>3.034243208153658</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.366924051040102</v>
+        <v>-3.273798500926904</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.898446006371771</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.749899734878946</v>
+        <v>-7.734725755885385</v>
       </c>
       <c r="F63" t="n">
-        <v>3.213345911028471</v>
+        <v>3.33651829616343</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.345884720373448</v>
+        <v>-3.249852679029387</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.862679251552211</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.486142201829533</v>
+        <v>-7.473508129587267</v>
       </c>
       <c r="F64" t="n">
-        <v>3.070901656110491</v>
+        <v>3.194519179542068</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.676517736338398</v>
+        <v>-3.58635104666743</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.819224865120463</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.201476261141883</v>
+        <v>-7.19091077274861</v>
       </c>
       <c r="F65" t="n">
-        <v>3.17124106508948</v>
+        <v>3.299362340698611</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.712141892370735</v>
+        <v>-3.617170327556854</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.75769841316316</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.986893417565993</v>
+        <v>-6.974652114408979</v>
       </c>
       <c r="F66" t="n">
-        <v>3.019553644365241</v>
+        <v>3.142909321739984</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.76778417944807</v>
+        <v>-3.677853151228254</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.674129045462887</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.085989057775017</v>
+        <v>-7.085308258027247</v>
       </c>
       <c r="F67" t="n">
-        <v>3.018637183166321</v>
+        <v>3.143878152150272</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.656316313053614</v>
+        <v>-3.572250636506892</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.557745250211457</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.775701480426109</v>
+        <v>-6.77100134370593</v>
       </c>
       <c r="F68" t="n">
-        <v>2.985435103159703</v>
+        <v>3.110152380029986</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.631951537465163</v>
+        <v>-3.544586600602325</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.406025215541925</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.953154553142864</v>
+        <v>-6.958470028096605</v>
       </c>
       <c r="F69" t="n">
-        <v>2.744248700209426</v>
+        <v>2.862210348813377</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.673598152804693</v>
+        <v>-3.585277477834409</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.210867644319811</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.703798553219349</v>
+        <v>-6.703850922430717</v>
       </c>
       <c r="F70" t="n">
-        <v>2.809212706910071</v>
+        <v>2.931992322959777</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.481429331693838</v>
+        <v>-3.396695947702187</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.973805363967998</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.624616305632591</v>
+        <v>-6.630782780271043</v>
       </c>
       <c r="F71" t="n">
-        <v>2.714895757238276</v>
+        <v>2.829977099217048</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.475197395541176</v>
+        <v>-3.393095564420712</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.690746879654648</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.797290687812116</v>
+        <v>-6.807267022577511</v>
       </c>
       <c r="F72" t="n">
-        <v>2.864017086605536</v>
+        <v>2.98760842543143</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.35037538024816</v>
+        <v>-3.272057224648954</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.367885596162032</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.943806648913872</v>
+        <v>-6.955838475225418</v>
       </c>
       <c r="F73" t="n">
-        <v>2.616991516587848</v>
+        <v>2.727883321657268</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.270826548181832</v>
+        <v>-3.197129975485756</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.005616456132067</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.216283655655875</v>
+        <v>-7.228014359002062</v>
       </c>
       <c r="F74" t="n">
-        <v>2.751082882292807</v>
+        <v>2.865509609129492</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.24032148256061</v>
+        <v>-3.168575662987952</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.613867511458444</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.386313392661371</v>
+        <v>-7.400806571907162</v>
       </c>
       <c r="F75" t="n">
-        <v>2.303247571288725</v>
+        <v>2.412070792509152</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.97597479588332</v>
+        <v>-2.90217348476451</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.195592626812686</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.822692938678943</v>
+        <v>-7.83753961010146</v>
       </c>
       <c r="F76" t="n">
-        <v>2.552525017395189</v>
+        <v>2.667423067134177</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.902513884638394</v>
+        <v>-2.831147741848146</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.762427756408827</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.143087773821664</v>
+        <v>-8.152160739690979</v>
       </c>
       <c r="F77" t="n">
-        <v>2.399057043484476</v>
+        <v>2.506623403632097</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.774968670354299</v>
+        <v>-2.705212880813582</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.318147839943347</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.493162859506576</v>
+        <v>-8.496488304428375</v>
       </c>
       <c r="F78" t="n">
-        <v>2.294004405482466</v>
+        <v>2.397014644241167</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.61220516142596</v>
+        <v>-2.546390155040604</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.874467860120526</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.953147827547781</v>
+        <v>-8.951720766538033</v>
       </c>
       <c r="F79" t="n">
-        <v>2.407645594148649</v>
+        <v>2.520291767798859</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.327486851526944</v>
+        <v>-2.261423091387594</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.434739940335315</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.348954327058843</v>
+        <v>-9.340693083965714</v>
       </c>
       <c r="F80" t="n">
-        <v>2.117179763302114</v>
+        <v>2.222468062755275</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.776235440376068</v>
+        <v>-1.703481513484596</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.010949621843855</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.98615670636565</v>
+        <v>-9.968154789958277</v>
       </c>
       <c r="F81" t="n">
-        <v>2.261168909955417</v>
+        <v>2.366640501648362</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.881353539892286</v>
+        <v>-1.8127367806988</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.606306724434579</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.64081112536048</v>
+        <v>-10.61860657974091</v>
       </c>
       <c r="F82" t="n">
-        <v>2.241399532664411</v>
+        <v>2.348913523600665</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.654699593096325</v>
+        <v>-1.582128958444637</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.232569531960547</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.23941739588988</v>
+        <v>-11.21231632900751</v>
       </c>
       <c r="F83" t="n">
-        <v>1.921423651212626</v>
+        <v>2.015426385616219</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.251718511627996</v>
+        <v>-1.173059956154906</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.892901399232584</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.12045082332099</v>
+        <v>-12.08007416135711</v>
       </c>
       <c r="F84" t="n">
-        <v>1.98107218295953</v>
+        <v>2.083035037490892</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.105215642829082</v>
+        <v>-1.028115071394157</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.599334971230026</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.75030842073359</v>
+        <v>-12.69953647031338</v>
       </c>
       <c r="F85" t="n">
-        <v>1.902361258275073</v>
+        <v>2.003617128452982</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8042105081949575</v>
+        <v>-0.7306448585272988</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.354496463855943</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.54175121981877</v>
+        <v>-13.47820118182504</v>
       </c>
       <c r="F86" t="n">
-        <v>1.868268901675218</v>
+        <v>1.972824032169242</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5991588610878439</v>
+        <v>-0.5312752708534942</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.169904411358263</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.36409185361043</v>
+        <v>-14.29294827996849</v>
       </c>
       <c r="F87" t="n">
-        <v>1.88557692603198</v>
+        <v>1.99434777804104</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2082096059310617</v>
+        <v>-0.1396321236461006</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.046303676627586</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.55810987277585</v>
+        <v>-15.48293386985866</v>
       </c>
       <c r="F88" t="n">
-        <v>1.906838825846943</v>
+        <v>2.01422189375478</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06908536825669638</v>
+        <v>0.1383174656837438</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.9932559997036671</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.48931300469646</v>
+        <v>-16.38935327249988</v>
       </c>
       <c r="F89" t="n">
-        <v>1.647113722072781</v>
+        <v>1.746510485247165</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2515266083561492</v>
+        <v>0.3154956000408227</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.008027549265097</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.8883564863633</v>
+        <v>-17.78177204892881</v>
       </c>
       <c r="F90" t="n">
-        <v>1.60864853632379</v>
+        <v>1.713151297606447</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7130957450412017</v>
+        <v>0.7814506581778535</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.096402065547002</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.03088247845221</v>
+        <v>-18.90328489495675</v>
       </c>
       <c r="F91" t="n">
-        <v>1.297117190204918</v>
+        <v>1.394563200255885</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6846592632689726</v>
+        <v>0.7555540831569193</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.250921199331757</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.30849485126205</v>
+        <v>-20.16447952000306</v>
       </c>
       <c r="F92" t="n">
-        <v>1.086501314390071</v>
+        <v>1.174979096994456</v>
       </c>
       <c r="G92" t="n">
-        <v>1.186343215861074</v>
+        <v>1.272058522565854</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.473887235210641</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.89661737056911</v>
+        <v>-21.73682581438584</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9479585657189257</v>
+        <v>1.039211916525756</v>
       </c>
       <c r="G93" t="n">
-        <v>1.183816401412621</v>
+        <v>1.267332201239991</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.754385817450719</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.52278612193422</v>
+        <v>-23.34313354234005</v>
       </c>
       <c r="F94" t="n">
-        <v>1.051741250345288</v>
+        <v>1.14474896973291</v>
       </c>
       <c r="G94" t="n">
-        <v>1.349708970720132</v>
+        <v>1.443764074335092</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.090137016563806</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.18425172176062</v>
+        <v>-24.97460467635606</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3270691957529085</v>
+        <v>0.4105849955802792</v>
       </c>
       <c r="G95" t="n">
-        <v>1.328185224848334</v>
+        <v>1.431116909789985</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.470704909343138</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.94936908318497</v>
+        <v>-26.73269147115441</v>
       </c>
       <c r="F96" t="n">
-        <v>0.497098932758405</v>
+        <v>0.6003186483625733</v>
       </c>
       <c r="G96" t="n">
-        <v>1.037745578607483</v>
+        <v>1.139865540772946</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.885774339524979</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.85674740728752</v>
+        <v>-28.62229044799789</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1350105407429713</v>
+        <v>-0.05195297151506112</v>
       </c>
       <c r="G97" t="n">
-        <v>1.216128204826001</v>
+        <v>1.325776241125457</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.328316945076715</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.08120821391383</v>
+        <v>-30.83490272055244</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4034158413011974</v>
+        <v>-0.3059174620388634</v>
       </c>
       <c r="G98" t="n">
-        <v>1.091973896977912</v>
+        <v>1.212318344699058</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.774164592979091</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.25381040898406</v>
+        <v>-32.98480286249512</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3763933282358748</v>
+        <v>-0.283712916419296</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7143526061140074</v>
+        <v>0.8399077903661604</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.227460355630213</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.21684411246678</v>
+        <v>-34.92592005102079</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4466073483760517</v>
+        <v>-0.3516226912593291</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5238595997668931</v>
+        <v>0.6552146741779308</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.638712216464542</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.02665859579279</v>
+        <v>-36.70166836235262</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8030714778477274</v>
+        <v>-0.7121323423090982</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04480457416347868</v>
+        <v>0.08080297930004121</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.051971280022303</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.32886149669326</v>
+        <v>-38.99431388217864</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7093044048952852</v>
+        <v>-0.6073808272724478</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5829244055641035</v>
+        <v>-0.4605768355081734</v>
       </c>
     </row>
   </sheetData>
